--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>768159.7106630155</v>
+        <v>765738.245349906</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767345</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801578</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>399.468401205308</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498669</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.1936478648171</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.5598945400499</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693925</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>19.4916849718835</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36.1341569325235</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>233.3257147283078</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>256.7273523546845</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.9236587943928</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>32.79376842490409</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>246.0854195932753</v>
+        <v>272.2004739402406</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.2160107437958</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>287.3803615687889</v>
+        <v>287.380361568789</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.3698557183491</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.10628328435172</v>
+        <v>93.10628328435196</v>
       </c>
       <c r="T11" t="n">
-        <v>200.8287031225937</v>
+        <v>200.8287031225938</v>
       </c>
       <c r="U11" t="n">
         <v>250.9387147661294</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.6218784006021</v>
       </c>
       <c r="H12" t="n">
-        <v>85.95014355551385</v>
+        <v>85.9501435555139</v>
       </c>
       <c r="I12" t="n">
-        <v>5.816834883872161</v>
+        <v>5.81683488387236</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>121.1299247895956</v>
+        <v>121.1299247895957</v>
       </c>
       <c r="T12" t="n">
         <v>189.1946145595705</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7092488456592</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.83261550597814</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.2522581002752</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.196377237229</v>
       </c>
       <c r="U13" t="n">
         <v>286.19457132852</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>178.2452993779991</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>70.83738714349873</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754648</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672512</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.79181287784848</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560517</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>61.66004604094911</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444122</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>111.3062202753114</v>
+        <v>99.97427419833787</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819405</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>24.83266606352757</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189158</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.0068929878353</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936201</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238271</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986269</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833879</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833831</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788176329</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703267</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20.92847288552909</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.14614278817956</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1998.104470293511</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="C2" t="n">
-        <v>1629.141953353099</v>
+        <v>939.4077790033375</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.876254746348</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>885.0880021481041</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4334,7 +4334,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269322</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.104470293511</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.5540527820583</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C4" t="n">
-        <v>315.6178698541514</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>763.7557992120744</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W4" t="n">
-        <v>666.202517612298</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X4" t="n">
-        <v>666.202517612298</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1892.963660013483</v>
       </c>
       <c r="C5" t="n">
         <v>1590.416669135309</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X5" t="n">
-        <v>2736.118358115654</v>
+        <v>2283.102991989295</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.6040489720652</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>270.7141014741549</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>103.0112648488738</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V7" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="W7" t="n">
-        <v>417.6040489720652</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X7" t="n">
-        <v>417.6040489720652</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.6040489720652</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1122.60683175406</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>736.8185791558158</v>
+        <v>530.5269660969216</v>
       </c>
       <c r="F8" t="n">
-        <v>325.8326743662082</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4878,19 +4878,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>246.527082541108</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962294</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450122</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450122</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450122</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>474.5166334391254</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>474.5166334391254</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>246.527082541108</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>246.527082541108</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.150015680132</v>
+        <v>1801.684257419041</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.187498739721</v>
+        <v>1432.721740478629</v>
       </c>
       <c r="D11" t="n">
-        <v>1447.92180013297</v>
+        <v>1074.456041871878</v>
       </c>
       <c r="E11" t="n">
-        <v>1199.350669230673</v>
+        <v>799.5060681948678</v>
       </c>
       <c r="F11" t="n">
-        <v>788.3647644410651</v>
+        <v>388.5201634052602</v>
       </c>
       <c r="G11" t="n">
-        <v>374.0051576291502</v>
+        <v>388.5201634052602</v>
       </c>
       <c r="H11" t="n">
-        <v>83.72196412532301</v>
+        <v>98.23696990143299</v>
       </c>
       <c r="I11" t="n">
-        <v>83.72196412532301</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="J11" t="n">
-        <v>331.8987991897711</v>
+        <v>331.8987991897689</v>
       </c>
       <c r="K11" t="n">
-        <v>754.5900599895908</v>
+        <v>754.590059989587</v>
       </c>
       <c r="L11" t="n">
-        <v>1315.877707787744</v>
+        <v>1315.877707787738</v>
       </c>
       <c r="M11" t="n">
-        <v>1972.087801958791</v>
+        <v>1972.087801958784</v>
       </c>
       <c r="N11" t="n">
-        <v>2643.52986987889</v>
+        <v>2643.529869878881</v>
       </c>
       <c r="O11" t="n">
-        <v>3264.218313512965</v>
+        <v>3264.218313512954</v>
       </c>
       <c r="P11" t="n">
-        <v>3759.460539161029</v>
+        <v>3759.460539161017</v>
       </c>
       <c r="Q11" t="n">
-        <v>4083.194079157503</v>
+        <v>4083.19407915749</v>
       </c>
       <c r="R11" t="n">
-        <v>4186.098206266151</v>
+        <v>4186.098206266138</v>
       </c>
       <c r="S11" t="n">
-        <v>4092.051455473876</v>
+        <v>4092.051455473863</v>
       </c>
       <c r="T11" t="n">
-        <v>3889.194179592468</v>
+        <v>3889.194179592455</v>
       </c>
       <c r="U11" t="n">
-        <v>3635.720730333751</v>
+        <v>3635.720730333739</v>
       </c>
       <c r="V11" t="n">
-        <v>3304.65784299018</v>
+        <v>3304.657842990168</v>
       </c>
       <c r="W11" t="n">
-        <v>2951.889187720066</v>
+        <v>2951.889187720054</v>
       </c>
       <c r="X11" t="n">
-        <v>2951.889187720066</v>
+        <v>2578.423429458974</v>
       </c>
       <c r="Y11" t="n">
-        <v>2561.749855744254</v>
+        <v>2188.284097483162</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.932135068123</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3975770950079</v>
+        <v>312.397577095008</v>
       </c>
       <c r="G12" t="n">
         <v>176.4158817408644</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59755491711307</v>
+        <v>89.59755491711302</v>
       </c>
       <c r="I12" t="n">
-        <v>83.72196412532301</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="J12" t="n">
-        <v>212.7165399511886</v>
+        <v>212.7165399511878</v>
       </c>
       <c r="K12" t="n">
-        <v>511.3436407162641</v>
+        <v>511.3436407162623</v>
       </c>
       <c r="L12" t="n">
-        <v>959.2071717232548</v>
+        <v>959.2071717232518</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.199656222637</v>
+        <v>959.2071717232518</v>
       </c>
       <c r="N12" t="n">
-        <v>2071.945713953494</v>
+        <v>1529.953229454107</v>
       </c>
       <c r="O12" t="n">
-        <v>2556.27551506584</v>
+        <v>2029.854572786009</v>
       </c>
       <c r="P12" t="n">
-        <v>2556.27551506584</v>
+        <v>2327.84898760839</v>
       </c>
       <c r="Q12" t="n">
-        <v>2556.27551506584</v>
+        <v>2533.207683901341</v>
       </c>
       <c r="R12" t="n">
         <v>2556.27551506584</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.7047038976146</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="C13" t="n">
-        <v>485.7047038976146</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="D13" t="n">
-        <v>485.7047038976146</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="E13" t="n">
-        <v>485.7047038976146</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="F13" t="n">
-        <v>338.8147563997043</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="G13" t="n">
-        <v>171.4316767576242</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="H13" t="n">
-        <v>171.4316767576242</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="I13" t="n">
-        <v>83.72196412532301</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="J13" t="n">
-        <v>117.7016606826977</v>
+        <v>117.7016606826971</v>
       </c>
       <c r="K13" t="n">
-        <v>252.4231786760684</v>
+        <v>252.4231786760672</v>
       </c>
       <c r="L13" t="n">
-        <v>454.7261364145528</v>
+        <v>454.7261364145509</v>
       </c>
       <c r="M13" t="n">
-        <v>671.2845233962429</v>
+        <v>671.28452339624</v>
       </c>
       <c r="N13" t="n">
-        <v>890.5511618732512</v>
+        <v>890.5511618732477</v>
       </c>
       <c r="O13" t="n">
-        <v>1072.76630292299</v>
+        <v>1072.766302922985</v>
       </c>
       <c r="P13" t="n">
-        <v>1209.620863594897</v>
+        <v>1209.620863594892</v>
       </c>
       <c r="Q13" t="n">
-        <v>1248.784089762312</v>
+        <v>1248.784089762307</v>
       </c>
       <c r="R13" t="n">
-        <v>1248.784089762312</v>
+        <v>1248.784089762307</v>
       </c>
       <c r="S13" t="n">
-        <v>1248.784089762312</v>
+        <v>1062.670697741827</v>
       </c>
       <c r="T13" t="n">
-        <v>1248.784089762312</v>
+        <v>842.2703166941212</v>
       </c>
       <c r="U13" t="n">
-        <v>959.6986641779488</v>
+        <v>553.1848911097575</v>
       </c>
       <c r="V13" t="n">
-        <v>959.6986641779488</v>
+        <v>373.1391341622834</v>
       </c>
       <c r="W13" t="n">
-        <v>959.6986641779488</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="X13" t="n">
-        <v>888.1457478713844</v>
+        <v>83.72196412532276</v>
       </c>
       <c r="Y13" t="n">
-        <v>667.3531687278543</v>
+        <v>83.72196412532276</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364352</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608048</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698317</v>
+        <v>525.8973588994251</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.562310321959</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721295</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.534748721489</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.707454852312</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>675.707454852312</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>525.5908154399763</v>
+        <v>175.0061676818304</v>
       </c>
       <c r="E16" t="n">
-        <v>377.677721857583</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="F16" t="n">
-        <v>230.7877743596728</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608048</v>
@@ -5467,19 +5467,19 @@
         <v>1957.66745682198</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136707</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.90675493082</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
         <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958422</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.707454852312</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327638</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048569</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925213</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>444.7013164925213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>297.811368994611</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630036</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5789,13 +5789,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143764</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.2946447138404</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3584617859335</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2418223735979</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138404</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138404</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876657</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876657</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>577.862038843391</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>408.9258559154841</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D28" t="n">
-        <v>408.9258559154841</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330911</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330912</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,13 +6385,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003835</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2443.925817935983</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2261.070983590887</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2041.469518613828</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1752.394291958026</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1497.709803752139</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1208.292633715178</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>980.3030828171609</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>759.5105036736308</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,10 +6549,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>198.0274703142537</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,13 +6783,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188007</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,16 +6956,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7315,19 +7315,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121644</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,10 +7336,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188004</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908935</v>
+        <v>411.9631215597625</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908935</v>
+        <v>261.8464821474268</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908935</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
         <v>2035.089393279802</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925703</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490402</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D46" t="n">
-        <v>411.963121559762</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E46" t="n">
-        <v>411.963121559762</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
   </sheetData>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>135.8449504789864</v>
+        <v>109.7298961320212</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.2160107437958</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.36985571834867</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7092488456593</v>
       </c>
       <c r="H13" t="n">
-        <v>141.9405139481856</v>
+        <v>141.9405139481857</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.8326155059783</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>74.69849031983834</v>
+        <v>74.69849031983857</v>
       </c>
       <c r="S13" t="n">
-        <v>184.2522581002752</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.196377237229</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>73.89234394582894</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>154.8722682455384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729275</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613729318</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537665</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>110.7502399993184</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.875832822406664e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>103.8640922513197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>35.12774237125774</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922739</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>123.7828069546848</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.4596884482301</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>63.36835372228639</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864879</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393005</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823086</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194536</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194214</v>
+        <v>63.36835372228711</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347517</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>902893.688599806</v>
+        <v>902893.6885998046</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997311.4314518713</v>
+        <v>997311.4314518712</v>
       </c>
     </row>
     <row r="7">
@@ -26317,34 +26317,34 @@
         <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713454</v>
+        <v>386954.4379713446</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099659</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372532</v>
@@ -26353,7 +26353,7 @@
         <v>423751.9648372532</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>205265.6758529982</v>
+        <v>205265.6758529946</v>
       </c>
       <c r="F3" t="n">
-        <v>105843.5890320656</v>
+        <v>105843.5890320686</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.2362355791</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53609.53605651454</v>
+        <v>53609.53605651358</v>
       </c>
       <c r="N3" t="n">
-        <v>27828.78668214031</v>
+        <v>27828.78668214115</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>695.9801673478416</v>
+        <v>695.9801673478398</v>
       </c>
       <c r="F4" t="n">
         <v>14820.16342064201</v>
@@ -26439,7 +26439,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26448,7 +26448,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>91212.74033452552</v>
+        <v>91212.74033452525</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26525,43 +26525,43 @@
         <v>229516.2445133029</v>
       </c>
       <c r="D6" t="n">
-        <v>229516.2445133029</v>
+        <v>229516.2445133028</v>
       </c>
       <c r="E6" t="n">
-        <v>89780.04161647383</v>
+        <v>89570.07737263213</v>
       </c>
       <c r="F6" t="n">
-        <v>200600.9991434199</v>
+        <v>200555.0941478513</v>
       </c>
       <c r="G6" t="n">
-        <v>296635.5027358998</v>
+        <v>296600.7648104636</v>
       </c>
       <c r="H6" t="n">
-        <v>307802.7389714789</v>
+        <v>307768.0010460429</v>
       </c>
       <c r="I6" t="n">
-        <v>307802.7389714783</v>
+        <v>307768.001046043</v>
       </c>
       <c r="J6" t="n">
-        <v>90271.536574201</v>
+        <v>90236.7986487654</v>
       </c>
       <c r="K6" t="n">
-        <v>307802.7389714788</v>
+        <v>307768.001046043</v>
       </c>
       <c r="L6" t="n">
-        <v>307802.7389714786</v>
+        <v>307768.001046043</v>
       </c>
       <c r="M6" t="n">
-        <v>254193.2029149641</v>
+        <v>254158.4649895293</v>
       </c>
       <c r="N6" t="n">
-        <v>279973.9522893384</v>
+        <v>279939.2143639018</v>
       </c>
       <c r="O6" t="n">
-        <v>304779.4409942539</v>
+        <v>304744.7030688182</v>
       </c>
       <c r="P6" t="n">
-        <v>307802.7389714787</v>
+        <v>307768.0010460427</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1265.323284370643</v>
+        <v>1265.323284370641</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716385</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1046.524551566538</v>
+        <v>1046.524551566534</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26957,49 +26957,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>175.5465837773449</v>
+        <v>175.5465837773418</v>
       </c>
       <c r="F3" t="n">
-        <v>92.71776434574213</v>
+        <v>92.71776434574485</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>215.1230961642451</v>
+        <v>215.1230961642415</v>
       </c>
       <c r="F4" t="n">
-        <v>113.6207387594684</v>
+        <v>113.6207387594716</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>215.1230961642451</v>
+        <v>215.1230961642412</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6207387594684</v>
+        <v>113.6207387594718</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>215.1230961642451</v>
+        <v>215.1230961642415</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6207387594684</v>
+        <v>113.6207387594716</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.2444771426672</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.407644536403438</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>47.4218251533953</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>34.20913079139197</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161505</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>350.2394157065855</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>108.6208579817973</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>53.19728360828324</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>154.1943732987689</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230202</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>134.4530526737237</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.533915373279091e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-5.087485988042317e-12</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.62896094516788e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-3.193605380147347e-12</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29907,7 +29907,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.148294190052504e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-3.808509063674137e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.928301823346</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.086726771339266</v>
+        <v>5.086726771339254</v>
       </c>
       <c r="H11" t="n">
-        <v>52.09444054697827</v>
+        <v>52.09444054697816</v>
       </c>
       <c r="I11" t="n">
-        <v>196.1060338520572</v>
+        <v>196.1060338520568</v>
       </c>
       <c r="J11" t="n">
-        <v>431.7295763089564</v>
+        <v>431.7295763089555</v>
       </c>
       <c r="K11" t="n">
-        <v>647.0507205397477</v>
+        <v>647.0507205397462</v>
       </c>
       <c r="L11" t="n">
-        <v>802.7236349681218</v>
+        <v>802.7236349681201</v>
       </c>
       <c r="M11" t="n">
-        <v>893.1847121879265</v>
+        <v>893.1847121879246</v>
       </c>
       <c r="N11" t="n">
-        <v>907.6373746269942</v>
+        <v>907.6373746269923</v>
       </c>
       <c r="O11" t="n">
-        <v>857.0562352944893</v>
+        <v>857.0562352944875</v>
       </c>
       <c r="P11" t="n">
-        <v>731.4776681270511</v>
+        <v>731.4776681270496</v>
       </c>
       <c r="Q11" t="n">
-        <v>549.3092656284634</v>
+        <v>549.3092656284623</v>
       </c>
       <c r="R11" t="n">
-        <v>319.5291005501404</v>
+        <v>319.5291005501397</v>
       </c>
       <c r="S11" t="n">
-        <v>115.9137863018936</v>
+        <v>115.9137863018934</v>
       </c>
       <c r="T11" t="n">
-        <v>22.26714644153765</v>
+        <v>22.2671464415376</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4069381417071412</v>
+        <v>0.4069381417071403</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.721638762608554</v>
+        <v>2.721638762608547</v>
       </c>
       <c r="H12" t="n">
-        <v>26.28530068098261</v>
+        <v>26.28530068098256</v>
       </c>
       <c r="I12" t="n">
-        <v>93.70554511612784</v>
+        <v>93.70554511612764</v>
       </c>
       <c r="J12" t="n">
-        <v>257.1351780059248</v>
+        <v>257.1351780059243</v>
       </c>
       <c r="K12" t="n">
-        <v>439.4849751006979</v>
+        <v>439.4849751006969</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9417848374405</v>
+        <v>590.9417848374393</v>
       </c>
       <c r="M12" t="n">
-        <v>689.6011899820005</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>707.8528815084413</v>
+        <v>707.8528815084397</v>
       </c>
       <c r="O12" t="n">
-        <v>631.8182657700461</v>
+        <v>647.5470962948503</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>434.9788668308765</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>347.4148006445578</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>168.9803435240641</v>
       </c>
       <c r="S12" t="n">
-        <v>50.55324631424217</v>
+        <v>50.55324631424207</v>
       </c>
       <c r="T12" t="n">
-        <v>10.97011413525114</v>
+        <v>10.97011413525112</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1790551817505628</v>
+        <v>0.1790551817505624</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28173051279952</v>
+        <v>2.281730512799515</v>
       </c>
       <c r="H13" t="n">
-        <v>20.28665855925393</v>
+        <v>20.28665855925389</v>
       </c>
       <c r="I13" t="n">
-        <v>68.61785942128014</v>
+        <v>68.61785942127999</v>
       </c>
       <c r="J13" t="n">
-        <v>161.3183472549261</v>
+        <v>161.3183472549257</v>
       </c>
       <c r="K13" t="n">
-        <v>265.0955995779806</v>
+        <v>265.09559957798</v>
       </c>
       <c r="L13" t="n">
-        <v>339.2310982393033</v>
+        <v>339.2310982393026</v>
       </c>
       <c r="M13" t="n">
-        <v>357.6716293836557</v>
+        <v>357.6716293836549</v>
       </c>
       <c r="N13" t="n">
-        <v>349.1669974723123</v>
+        <v>349.1669974723116</v>
       </c>
       <c r="O13" t="n">
-        <v>322.5122364818814</v>
+        <v>322.5122364818807</v>
       </c>
       <c r="P13" t="n">
-        <v>275.964934020771</v>
+        <v>275.9649340207704</v>
       </c>
       <c r="Q13" t="n">
-        <v>191.0638159399671</v>
+        <v>191.0638159399667</v>
       </c>
       <c r="R13" t="n">
-        <v>102.5949010573311</v>
+        <v>102.5949010573309</v>
       </c>
       <c r="S13" t="n">
-        <v>39.76433993669708</v>
+        <v>39.764339936697</v>
       </c>
       <c r="T13" t="n">
-        <v>9.749212191052493</v>
+        <v>9.749212191052473</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1244580279708831</v>
+        <v>0.1244580279708828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>574.9651909908055</v>
       </c>
       <c r="M15" t="n">
         <v>740.13237155043</v>
@@ -32093,13 +32093,13 @@
         <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059974</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862159</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>391.9250669264629</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,16 +32792,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013277</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>250.6836717822701</v>
+        <v>250.6836717822692</v>
       </c>
       <c r="K11" t="n">
-        <v>426.9608694947671</v>
+        <v>426.9608694947656</v>
       </c>
       <c r="L11" t="n">
-        <v>566.9572199981346</v>
+        <v>566.9572199981328</v>
       </c>
       <c r="M11" t="n">
-        <v>662.8384789606538</v>
+        <v>662.8384789606519</v>
       </c>
       <c r="N11" t="n">
-        <v>678.2243110304032</v>
+        <v>678.2243110304014</v>
       </c>
       <c r="O11" t="n">
-        <v>626.9580238728025</v>
+        <v>626.9580238728007</v>
       </c>
       <c r="P11" t="n">
-        <v>500.2446723717815</v>
+        <v>500.24467237178</v>
       </c>
       <c r="Q11" t="n">
-        <v>327.0035757540139</v>
+        <v>327.0035757540128</v>
       </c>
       <c r="R11" t="n">
-        <v>103.9435627360083</v>
+        <v>103.9435627360076</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>130.2975513392581</v>
+        <v>130.2975513392576</v>
       </c>
       <c r="K12" t="n">
-        <v>301.6435361263389</v>
+        <v>301.6435361263379</v>
       </c>
       <c r="L12" t="n">
-        <v>452.3874050575664</v>
+        <v>452.3874050575651</v>
       </c>
       <c r="M12" t="n">
-        <v>547.4671560599822</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>576.5111694251081</v>
+        <v>576.5111694251065</v>
       </c>
       <c r="O12" t="n">
-        <v>489.2220213256016</v>
+        <v>504.9508518504059</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>301.0044594165463</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>207.4330265585363</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.30083956010014</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.32292581552996</v>
+        <v>34.32292581552962</v>
       </c>
       <c r="K13" t="n">
-        <v>136.0823414074452</v>
+        <v>136.0823414074446</v>
       </c>
       <c r="L13" t="n">
-        <v>204.346421958065</v>
+        <v>204.3464219580643</v>
       </c>
       <c r="M13" t="n">
-        <v>218.7458454360506</v>
+        <v>218.7458454360499</v>
       </c>
       <c r="N13" t="n">
-        <v>221.4814530070791</v>
+        <v>221.4814530070784</v>
       </c>
       <c r="O13" t="n">
-        <v>184.0556980300386</v>
+        <v>184.0556980300379</v>
       </c>
       <c r="P13" t="n">
-        <v>138.2369299716233</v>
+        <v>138.2369299716228</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.55881431052129</v>
+        <v>39.55881431052086</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>436.4108112109313</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
@@ -35741,13 +35741,13 @@
         <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916671</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121327</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096357</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066211</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
